--- a/Result/Rails 3 - MYSQL - Passenger.xlsx
+++ b/Result/Rails 3 - MYSQL - Passenger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13980" windowHeight="5265" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13980" windowHeight="5265"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="57">
   <si>
     <t>Url</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Throughtput 25</t>
   </si>
   <si>
-    <t>Throughtput 30</t>
-  </si>
-  <si>
     <t>Throughput Pedido (req/sec)</t>
   </si>
   <si>
@@ -128,27 +125,6 @@
   </si>
   <si>
     <t>25.0 /sec</t>
-  </si>
-  <si>
-    <t>30.0 /sec</t>
-  </si>
-  <si>
-    <t>35.0 /sec</t>
-  </si>
-  <si>
-    <t>40.0 /sec</t>
-  </si>
-  <si>
-    <t>Throughtput 35</t>
-  </si>
-  <si>
-    <t>Throughtput 40</t>
-  </si>
-  <si>
-    <t>Throughtput 45</t>
-  </si>
-  <si>
-    <t>45.0 /sec</t>
   </si>
   <si>
     <t>ip-0AD076EF</t>
@@ -585,14 +561,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -614,17 +588,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,7 +637,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -679,18 +655,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20.1/sec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -726,7 +690,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -744,18 +708,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20.1/sec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -791,7 +743,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -809,18 +761,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20.1/sec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -856,7 +796,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -874,18 +814,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20.1/sec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -921,7 +849,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -939,18 +867,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20.1/sec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -986,7 +902,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1004,18 +920,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20.1/sec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1041,9 +945,6 @@
               <c:f>Resumen!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Throughtput 30</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1051,7 +952,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1070,18 +971,6 @@
                 <c:pt idx="5">
                   <c:v>20.1/sec</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1091,9 +980,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1106,9 +992,6 @@
               <c:f>Resumen!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Throughtput 35</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1116,7 +999,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1135,18 +1018,6 @@
                 <c:pt idx="5">
                   <c:v>20.1/sec</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1156,9 +1027,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1171,9 +1039,6 @@
               <c:f>Resumen!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Throughtput 40</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1181,7 +1046,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1200,18 +1065,6 @@
                 <c:pt idx="5">
                   <c:v>20.1/sec</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1221,9 +1074,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1236,9 +1086,6 @@
               <c:f>Resumen!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Throughtput 45</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1246,7 +1093,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1265,18 +1112,6 @@
                 <c:pt idx="5">
                   <c:v>20.1/sec</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1286,18 +1121,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81863040"/>
-        <c:axId val="81864576"/>
+        <c:axId val="65525248"/>
+        <c:axId val="65527168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81863040"/>
+        <c:axId val="65525248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,14 +1137,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="81864576"/>
+        <c:crossAx val="65527168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81864576"/>
+        <c:axId val="65527168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1152,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81863040"/>
+        <c:crossAx val="65525248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1333,7 +1165,131 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-AR"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resumen!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg gen time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resumen!$H$7:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0/sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9/sec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9/sec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.7/sec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.3/sec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.1/sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resumen!$C$7:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>167.892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210.31700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220.83466666666601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293.90333333333302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>641.536333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>927.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="66736128"/>
+        <c:axId val="66738432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="66736128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66738432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66738432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66736128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1345,14 +1301,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1366,6 +1322,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1661,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1677,7 +1663,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1">
@@ -1692,179 +1678,179 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="I4" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <f>'Simple Concurrent'!B2</f>
         <v>0</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <f>'Simple Concurrent'!C2</f>
         <v>0</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <f>'Simple Concurrent'!D2</f>
         <v>0</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <f>'Simple Concurrent'!E2</f>
         <v>0</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <f>'Simple Concurrent'!F2</f>
         <v>0</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <f>'Simple Concurrent'!G2</f>
         <v>0</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="20">
         <f>'Simple Concurrent'!H2</f>
         <v>0</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>27</v>
+      <c r="I5" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <f>'Gaussian Concurrent'!B2</f>
         <v>0</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="25">
         <f>'Gaussian Concurrent'!C2</f>
         <v>0</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="25">
         <f>'Gaussian Concurrent'!D2</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="25">
         <f>'Gaussian Concurrent'!E2</f>
         <v>0</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="25">
         <f>'Gaussian Concurrent'!F2</f>
         <v>0</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="25">
         <f>'Gaussian Concurrent'!G2</f>
         <v>0</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="25">
         <f>'Gaussian Concurrent'!H2</f>
         <v>0</v>
       </c>
-      <c r="I6" s="29" t="s">
-        <v>27</v>
+      <c r="I6" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickTop="1">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <f>'Throughtput 5'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <f>'Throughtput 5'!C2</f>
         <v>167.892</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <f>'Throughtput 5'!D2</f>
         <v>83.146683654049994</v>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E7" s="9" t="str">
         <f>'Throughtput 5'!E2</f>
         <v>97.0</v>
       </c>
-      <c r="F7" s="10" t="str">
+      <c r="F7" s="9" t="str">
         <f>'Throughtput 5'!F2</f>
         <v>1122.0</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f>'Throughtput 5'!G2</f>
         <v>0</v>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="H7" s="9" t="str">
         <f>'Throughtput 5'!H2</f>
         <v>5.0/sec</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>28</v>
+      <c r="I7" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <f>'Throughtput 8'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <f>'Throughtput 8'!C2</f>
         <v>210.31700000000001</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <f>'Throughtput 8'!D2</f>
         <v>91.415785531456905</v>
       </c>
-      <c r="E8" s="14" t="str">
+      <c r="E8" s="12" t="str">
         <f>'Throughtput 8'!E2</f>
         <v>101.0</v>
       </c>
-      <c r="F8" s="14" t="str">
+      <c r="F8" s="12" t="str">
         <f>'Throughtput 8'!F2</f>
         <v>2517.0</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <f>'Throughtput 8'!G2</f>
         <v>0</v>
       </c>
-      <c r="H8" s="14" t="str">
+      <c r="H8" s="12" t="str">
         <f>'Throughtput 8'!H2</f>
         <v>7.9/sec</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>29</v>
+      <c r="I8" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1874,75 +1860,75 @@
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <f>'Throughtput 10'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f>'Throughtput 10'!C2</f>
         <v>220.83466666666601</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f>'Throughtput 10'!D2</f>
         <v>87.849173767062595</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="10" t="str">
         <f>'Throughtput 10'!E2</f>
         <v>101.0</v>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F9" s="10" t="str">
         <f>'Throughtput 10'!F2</f>
         <v>3111.0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>'Throughtput 10'!G2</f>
         <v>0</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="10" t="str">
         <f>'Throughtput 10'!H2</f>
         <v>9.9/sec</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>30</v>
+      <c r="I9" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <f>'Throughtput 15'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <f>'Throughtput 15'!C2</f>
         <v>293.90333333333302</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <f>'Throughtput 15'!D2</f>
         <v>122.10658454354</v>
       </c>
-      <c r="E10" s="14" t="str">
+      <c r="E10" s="12" t="str">
         <f>'Throughtput 15'!E2</f>
         <v>96.0</v>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="F10" s="12" t="str">
         <f>'Throughtput 15'!F2</f>
         <v>1312.0</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <f>'Throughtput 15'!G2</f>
         <v>0</v>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="12" t="str">
         <f>'Throughtput 15'!H2</f>
         <v>14.7/sec</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>31</v>
+      <c r="I10" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J10">
         <v>0.1</v>
@@ -1952,234 +1938,134 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <f>'Throughtput 20'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <f>'Throughtput 20'!C2</f>
         <v>641.536333333333</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f>'Throughtput 20'!D2</f>
         <v>177.764059021751</v>
       </c>
-      <c r="E11" s="11" t="str">
+      <c r="E11" s="10" t="str">
         <f>'Throughtput 20'!E2</f>
         <v>144.0</v>
       </c>
-      <c r="F11" s="11" t="str">
+      <c r="F11" s="10" t="str">
         <f>'Throughtput 20'!F2</f>
         <v>1683.0</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f>'Throughtput 20'!G2</f>
         <v>0</v>
       </c>
-      <c r="H11" s="11" t="str">
+      <c r="H11" s="10" t="str">
         <f>'Throughtput 20'!H2</f>
         <v>19.3/sec</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>32</v>
+      <c r="I11" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="J11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A12" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="29">
         <f>'Throughtput 25'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="29">
         <f>'Throughtput 25'!C2</f>
         <v>927.95</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="29">
         <f>'Throughtput 25'!D2</f>
         <v>237.87762995568301</v>
       </c>
-      <c r="E12" s="14" t="str">
+      <c r="E12" s="29" t="str">
         <f>'Throughtput 25'!E2</f>
         <v>174.0</v>
       </c>
-      <c r="F12" s="14" t="str">
+      <c r="F12" s="29" t="str">
         <f>'Throughtput 25'!F2</f>
         <v>2437.0</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="29">
         <f>'Throughtput 25'!G2</f>
         <v>0</v>
       </c>
-      <c r="H12" s="14" t="str">
+      <c r="H12" s="29" t="str">
         <f>'Throughtput 25'!H2</f>
         <v>20.1/sec</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>33</v>
+      <c r="I12" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="J12">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="12">
-        <f>'Throughtput 30'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="12">
-        <f>'Throughtput 30'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <f>'Throughtput 30'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <f>'Throughtput 30'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <f>'Throughtput 30'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <f>'Throughtput 30'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <f>'Throughtput 30'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>34</v>
-      </c>
+    <row r="13" spans="1:10">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
       <c r="J13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A14" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="34">
-        <f>'Throughtput 35'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="36">
-        <f>'Throughtput 35'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="34">
-        <f>'Throughtput 35'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="34">
-        <f>'Throughtput 35'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="34">
-        <f>'Throughtput 35'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="34">
-        <f>'Throughtput 35'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
-        <f>'Throughtput 35'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>35</v>
-      </c>
+    <row r="14" spans="1:10">
+      <c r="A14" s="34"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
       <c r="J14">
         <f>35-33.6</f>
         <v>1.3999999999999986</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A15" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="12">
-        <f>'Throughtput 40'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="12">
-        <f>'Throughtput 40'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <f>'Throughtput 40'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <f>'Throughtput 40'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
-        <f>'Throughtput 40'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <f>'Throughtput 40'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <f>'Throughtput 40'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>36</v>
-      </c>
+    <row r="15" spans="1:10">
+      <c r="A15" s="34"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
       <c r="J15">
         <f>40-37.3</f>
         <v>2.7000000000000028</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="34">
-        <f>'Throughtput 45'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="34">
-        <f>'Throughtput 45'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="34">
-        <f>'Throughtput 45'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="34">
-        <f>'Throughtput 45'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="34">
-        <f>'Throughtput 45'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="34">
-        <f>'Throughtput 45'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="34">
-        <f>'Throughtput 45'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>40</v>
-      </c>
+    <row r="16" spans="1:10">
+      <c r="A16" s="34"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
       <c r="J16">
         <f>45-37.7</f>
         <v>7.2999999999999972</v>
@@ -2206,16 +2092,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -2230,7 +2116,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2261,16 +2147,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -2285,7 +2171,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2316,16 +2202,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -2340,7 +2226,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2371,16 +2257,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -2395,7 +2281,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2429,16 +2315,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -2453,7 +2339,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -29469,16 +29355,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -29493,7 +29379,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -29517,7 +29403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -29527,16 +29413,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -29551,13 +29437,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29569,19 +29455,19 @@
         <v>83.146683654049994</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -29603,16 +29489,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -29627,13 +29513,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29645,19 +29531,19 @@
         <v>91.415785531456905</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -29680,16 +29566,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -29704,13 +29590,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29722,19 +29608,19 @@
         <v>87.849173767062595</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -29756,16 +29642,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -29780,13 +29666,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29798,23 +29684,23 @@
         <v>122.10658454354</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="I3" s="30"/>
+      <c r="I3" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29839,16 +29725,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -29863,13 +29749,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29881,19 +29767,19 @@
         <v>177.764059021751</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -29915,16 +29801,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -29939,13 +29825,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29957,19 +29843,19 @@
         <v>237.87762995568301</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
